--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3163897.74052313</v>
+        <v>3161315.433603068</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8514014.909231925</v>
+        <v>8514014.909231927</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>228.0767087417152</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>40.21094638715004</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>123.8929822635895</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.78343464781736</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>86.23693751337954</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.4387144305802</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2788177711868</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>295.9170318051096</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>244.1268396142461</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +978,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>107.9183712397942</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.40466188138203</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>163.3803536010976</v>
       </c>
       <c r="T6" t="n">
-        <v>57.43091277063052</v>
+        <v>198.3630074941089</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9119742267739</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.1436283814064</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>43.94622529012723</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>217.4857403436987</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>198.6041029820352</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>305.5176794933398</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.64898496801726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.48562095232886</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>185.2101817522263</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4312359312389</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1975695246138</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>1.600827926742863</v>
       </c>
     </row>
     <row r="14">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>77.95701871749451</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S16" t="n">
         <v>185.2101817522263</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>246.7653863875065</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,13 +1895,13 @@
         <v>95.89864844526114</v>
       </c>
       <c r="T17" t="n">
-        <v>201.3651190739653</v>
+        <v>201.3651190739656</v>
       </c>
       <c r="U17" t="n">
         <v>250.9485179131561</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80.06270816018143</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H19" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>185.2101817522263</v>
       </c>
       <c r="T19" t="n">
-        <v>195.7397798634732</v>
+        <v>218.4312359312389</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1975695246138</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>33.78692542459969</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I22" t="n">
-        <v>88.48562095232886</v>
+        <v>71.95271879982485</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.2101817522263</v>
       </c>
       <c r="T22" t="n">
         <v>218.4312359312389</v>
@@ -2296,10 +2296,10 @@
         <v>286.1975695246138</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2375,7 +2375,7 @@
         <v>250.9485179131561</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H25" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.48562095232886</v>
+        <v>0.7870154177137101</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>77.17000329978111</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.2101817522263</v>
       </c>
       <c r="T25" t="n">
         <v>218.4312359312389</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>105.5750407078339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.7642157740445</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>76.82597150274684</v>
       </c>
       <c r="W28" t="n">
-        <v>145.6222586745154</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>20.11726854518939</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>80.06270816018159</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>97.28727184497018</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>81.07562278381992</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S34" t="n">
         <v>185.2101817522263</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>97.28727184497041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.39859246395585</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S37" t="n">
         <v>185.2101817522263</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>25.31573178209806</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>97.28727184496972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.48562095232886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S40" t="n">
         <v>185.2101817522263</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>97.287271844971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.48562095232886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S43" t="n">
         <v>185.2101817522263</v>
@@ -3955,7 +3955,7 @@
         <v>286.1975695246138</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>214.9857980804136</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4034,7 +4034,7 @@
         <v>250.9485179131561</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>98.30018646860823</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.48562095232886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S46" t="n">
         <v>185.2101817522263</v>
       </c>
       <c r="T46" t="n">
-        <v>218.4312359312389</v>
+        <v>154.0676262592023</v>
       </c>
       <c r="U46" t="n">
         <v>286.1975695246138</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="C2" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D2" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E2" t="n">
-        <v>267.7881344992537</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4337,13 +4337,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>856.1181892401817</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>738.9318489996498</v>
+        <v>470.624386567445</v>
       </c>
       <c r="C3" t="n">
-        <v>564.4788197185228</v>
+        <v>296.171357286318</v>
       </c>
       <c r="D3" t="n">
-        <v>415.5444100572715</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="E3" t="n">
-        <v>256.306955051816</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>147.2369476250667</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4416,10 +4416,10 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3310704112777</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>946.7833492051826</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>946.7833492051826</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>946.7833492051826</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V3" t="n">
-        <v>946.7833492051826</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="W3" t="n">
-        <v>946.7833492051826</v>
+        <v>678.3846853323989</v>
       </c>
       <c r="X3" t="n">
-        <v>738.9318489996498</v>
+        <v>678.3846853323989</v>
       </c>
       <c r="Y3" t="n">
-        <v>738.9318489996498</v>
+        <v>470.624386567445</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
         <v>22.09252109618844</v>
@@ -4519,19 +4519,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>111.8846993128535</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.8846993128535</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1218.501036179363</v>
+        <v>832.7127835811186</v>
       </c>
       <c r="C5" t="n">
-        <v>849.5385192389512</v>
+        <v>463.750266640707</v>
       </c>
       <c r="D5" t="n">
-        <v>849.5385192389512</v>
+        <v>463.750266640707</v>
       </c>
       <c r="E5" t="n">
-        <v>463.7502666407069</v>
+        <v>463.750266640707</v>
       </c>
       <c r="F5" t="n">
-        <v>52.76436185109937</v>
+        <v>52.76436185109939</v>
       </c>
       <c r="G5" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="H5" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="I5" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="J5" t="n">
         <v>96.51892266207039</v>
       </c>
       <c r="K5" t="n">
-        <v>304.7422187413555</v>
+        <v>304.7422187413557</v>
       </c>
       <c r="L5" t="n">
-        <v>615.3382574332645</v>
+        <v>615.3382574332649</v>
       </c>
       <c r="M5" t="n">
-        <v>977.5427414006724</v>
+        <v>977.542741400673</v>
       </c>
       <c r="N5" t="n">
         <v>1330.97607504599</v>
@@ -4583,34 +4583,34 @@
         <v>1619.525511987217</v>
       </c>
       <c r="P5" t="n">
-        <v>1828.121397681856</v>
+        <v>1828.121397681857</v>
       </c>
       <c r="Q5" t="n">
-        <v>1907.546460887609</v>
+        <v>1907.54646088761</v>
       </c>
       <c r="R5" t="n">
-        <v>1907.546460887609</v>
+        <v>1907.54646088761</v>
       </c>
       <c r="S5" t="n">
-        <v>1907.546460887609</v>
+        <v>1907.54646088761</v>
       </c>
       <c r="T5" t="n">
-        <v>1907.546460887609</v>
+        <v>1685.891193786013</v>
       </c>
       <c r="U5" t="n">
-        <v>1907.546460887609</v>
+        <v>1432.07420613835</v>
       </c>
       <c r="V5" t="n">
-        <v>1907.546460887609</v>
+        <v>1432.07420613835</v>
       </c>
       <c r="W5" t="n">
-        <v>1907.546460887609</v>
+        <v>1079.305550868236</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.640368155175</v>
+        <v>1079.305550868236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.501036179363</v>
+        <v>832.7127835811186</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>776.3188369364728</v>
+        <v>212.6039584988792</v>
       </c>
       <c r="C6" t="n">
-        <v>601.8658076553459</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="D6" t="n">
-        <v>452.9313979940947</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="E6" t="n">
-        <v>293.6939429886392</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="F6" t="n">
-        <v>147.1593850155241</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="G6" t="n">
-        <v>147.1593850155241</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="H6" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="I6" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="J6" t="n">
-        <v>79.22112656939962</v>
+        <v>79.2211265693997</v>
       </c>
       <c r="K6" t="n">
-        <v>276.0374785229639</v>
+        <v>276.037478522964</v>
       </c>
       <c r="L6" t="n">
-        <v>602.0857486577647</v>
+        <v>602.085748657765</v>
       </c>
       <c r="M6" t="n">
-        <v>1034.547922842005</v>
+        <v>700.8586442133287</v>
       </c>
       <c r="N6" t="n">
-        <v>1160.473818704321</v>
+        <v>1160.473818704322</v>
       </c>
       <c r="O6" t="n">
-        <v>1514.516231999721</v>
+        <v>1514.516231999722</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.663413922389</v>
+        <v>1781.66341392239</v>
       </c>
       <c r="Q6" t="n">
-        <v>1907.546460887609</v>
+        <v>1907.54646088761</v>
       </c>
       <c r="R6" t="n">
-        <v>1907.546460887609</v>
+        <v>1834.410438785204</v>
       </c>
       <c r="S6" t="n">
-        <v>1907.546460887609</v>
+        <v>1669.379778582075</v>
       </c>
       <c r="T6" t="n">
-        <v>1849.535437886972</v>
+        <v>1469.013104345601</v>
       </c>
       <c r="U6" t="n">
-        <v>1849.535437886972</v>
+        <v>1240.819190985223</v>
       </c>
       <c r="V6" t="n">
-        <v>1614.383329655229</v>
+        <v>1005.667082753481</v>
       </c>
       <c r="W6" t="n">
-        <v>1360.145972927028</v>
+        <v>796.4310944894339</v>
       </c>
       <c r="X6" t="n">
-        <v>1152.294472721495</v>
+        <v>588.5795942839011</v>
       </c>
       <c r="Y6" t="n">
-        <v>944.5341739565408</v>
+        <v>380.8192955189472</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.4541493558294</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="C7" t="n">
-        <v>186.0640228001453</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="D7" t="n">
-        <v>186.0640228001453</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="E7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="F7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="G7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="H7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="I7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="J7" t="n">
-        <v>38.15092921775217</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="K7" t="n">
-        <v>59.20779308573347</v>
+        <v>59.20779308573356</v>
       </c>
       <c r="L7" t="n">
-        <v>141.6797638152187</v>
+        <v>141.6797638152189</v>
       </c>
       <c r="M7" t="n">
-        <v>239.0240166204114</v>
+        <v>239.0240166204116</v>
       </c>
       <c r="N7" t="n">
-        <v>339.4882570908528</v>
+        <v>339.488257090853</v>
       </c>
       <c r="O7" t="n">
-        <v>416.2669482593288</v>
+        <v>416.2669482593292</v>
       </c>
       <c r="P7" t="n">
-        <v>458.4437002538467</v>
+        <v>458.4437002538471</v>
       </c>
       <c r="Q7" t="n">
-        <v>458.4437002538467</v>
+        <v>458.4437002538471</v>
       </c>
       <c r="R7" t="n">
-        <v>458.4437002538467</v>
+        <v>458.4437002538471</v>
       </c>
       <c r="S7" t="n">
-        <v>458.4437002538467</v>
+        <v>238.761134250111</v>
       </c>
       <c r="T7" t="n">
-        <v>458.4437002538467</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="U7" t="n">
-        <v>458.4437002538467</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="V7" t="n">
-        <v>458.4437002538467</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="W7" t="n">
-        <v>458.4437002538467</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="X7" t="n">
-        <v>230.4541493558294</v>
+        <v>38.1509292177522</v>
       </c>
       <c r="Y7" t="n">
-        <v>230.4541493558294</v>
+        <v>38.1509292177522</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362306</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362306</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>940.9219833362306</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>933.9764825870271</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>516.012674485214</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2343.95839853872</v>
+        <v>2343.958398538719</v>
       </c>
       <c r="C11" t="n">
-        <v>1974.995881598308</v>
+        <v>1974.995881598307</v>
       </c>
       <c r="D11" t="n">
         <v>1616.730182991557</v>
@@ -5027,10 +5027,10 @@
         <v>1230.941930393313</v>
       </c>
       <c r="F11" t="n">
-        <v>819.956025603705</v>
+        <v>819.9560256037051</v>
       </c>
       <c r="G11" t="n">
-        <v>405.472641682866</v>
+        <v>405.4726416828662</v>
       </c>
       <c r="H11" t="n">
         <v>113.921815862271</v>
@@ -5039,25 +5039,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J11" t="n">
-        <v>499.9210077858626</v>
+        <v>482.5794649361791</v>
       </c>
       <c r="K11" t="n">
-        <v>1228.084638368989</v>
+        <v>1210.743095519305</v>
       </c>
       <c r="L11" t="n">
-        <v>1770.228035877338</v>
+        <v>1752.886493027654</v>
       </c>
       <c r="M11" t="n">
-        <v>2405.136462898854</v>
+        <v>2387.79492004917</v>
       </c>
       <c r="N11" t="n">
-        <v>3054.932180424736</v>
+        <v>3037.590637575052</v>
       </c>
       <c r="O11" t="n">
-        <v>3655.180589199781</v>
+        <v>3637.839046350097</v>
       </c>
       <c r="P11" t="n">
-        <v>4132.977717992583</v>
+        <v>4115.636175142899</v>
       </c>
       <c r="Q11" t="n">
         <v>4636.461014673262</v>
@@ -5066,25 +5066,25 @@
         <v>4731.744654718451</v>
       </c>
       <c r="S11" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T11" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U11" t="n">
         <v>4177.994871453418</v>
       </c>
       <c r="V11" t="n">
-        <v>3846.931984109848</v>
+        <v>3846.931984109847</v>
       </c>
       <c r="W11" t="n">
-        <v>3494.163328839733</v>
+        <v>3494.163328839732</v>
       </c>
       <c r="X11" t="n">
-        <v>3120.697570578654</v>
+        <v>3120.697570578653</v>
       </c>
       <c r="Y11" t="n">
-        <v>2730.558238602842</v>
+        <v>2730.558238602841</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>939.4128847466716</v>
       </c>
       <c r="M12" t="n">
-        <v>1464.958989438529</v>
+        <v>1432.213404040539</v>
       </c>
       <c r="N12" t="n">
-        <v>2018.823380626087</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.823380626087</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P12" t="n">
-        <v>2388.310502975393</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q12" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R12" t="n">
         <v>2571.675876565518</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.5945260717544</v>
+        <v>482.0440411924603</v>
       </c>
       <c r="C13" t="n">
-        <v>603.6583431438476</v>
+        <v>482.0440411924603</v>
       </c>
       <c r="D13" t="n">
-        <v>533.3058330751433</v>
+        <v>331.9274017801246</v>
       </c>
       <c r="E13" t="n">
-        <v>385.3927394927501</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5027919948396</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="G13" t="n">
-        <v>238.5027919948396</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="H13" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I13" t="n">
         <v>94.63489309436902</v>
       </c>
       <c r="J13" t="n">
-        <v>158.0671683427673</v>
+        <v>158.0671683427674</v>
       </c>
       <c r="K13" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144667</v>
       </c>
       <c r="L13" t="n">
-        <v>747.2052688577712</v>
+        <v>747.2052688577708</v>
       </c>
       <c r="M13" t="n">
-        <v>1131.958067424483</v>
+        <v>1131.958067424482</v>
       </c>
       <c r="N13" t="n">
-        <v>1512.99692082792</v>
+        <v>1512.996920827919</v>
       </c>
       <c r="O13" t="n">
-        <v>1848.93167935707</v>
+        <v>1848.931679357069</v>
       </c>
       <c r="P13" t="n">
-        <v>2112.861217572735</v>
+        <v>2112.861217572734</v>
       </c>
       <c r="Q13" t="n">
         <v>2212.157269137911</v>
@@ -5224,25 +5224,25 @@
         <v>2134.207770855304</v>
       </c>
       <c r="S13" t="n">
-        <v>1947.126779186389</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T13" t="n">
-        <v>1947.126779186389</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U13" t="n">
-        <v>1947.126779186389</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V13" t="n">
-        <v>1692.442290980502</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W13" t="n">
-        <v>1403.025120943542</v>
+        <v>893.2990548265177</v>
       </c>
       <c r="X13" t="n">
-        <v>1175.035570045524</v>
+        <v>665.3095039285004</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.2429909019942</v>
+        <v>663.6925060227001</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2343.958398538719</v>
+        <v>2343.95839853872</v>
       </c>
       <c r="C14" t="n">
-        <v>1974.995881598307</v>
+        <v>1974.995881598308</v>
       </c>
       <c r="D14" t="n">
-        <v>1616.730182991557</v>
+        <v>1616.730182991558</v>
       </c>
       <c r="E14" t="n">
         <v>1230.941930393313</v>
@@ -5267,7 +5267,7 @@
         <v>819.956025603705</v>
       </c>
       <c r="G14" t="n">
-        <v>405.4726416828662</v>
+        <v>405.472641682866</v>
       </c>
       <c r="H14" t="n">
         <v>113.921815862271</v>
@@ -5279,16 +5279,16 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K14" t="n">
-        <v>1043.942756822493</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.086154330842</v>
+        <v>1695.403030816477</v>
       </c>
       <c r="M14" t="n">
-        <v>2220.994581352358</v>
+        <v>2330.311457837994</v>
       </c>
       <c r="N14" t="n">
-        <v>2870.79029887824</v>
+        <v>2980.107175363875</v>
       </c>
       <c r="O14" t="n">
         <v>3848.030887103403</v>
@@ -5315,13 +5315,13 @@
         <v>3846.931984109847</v>
       </c>
       <c r="W14" t="n">
-        <v>3494.163328839732</v>
+        <v>3494.163328839733</v>
       </c>
       <c r="X14" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578654</v>
       </c>
       <c r="Y14" t="n">
-        <v>2730.558238602841</v>
+        <v>2730.558238602842</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J15" t="n">
-        <v>94.63489309436902</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="K15" t="n">
-        <v>94.63489309436902</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="L15" t="n">
-        <v>528.4049840395371</v>
+        <v>638.3203417907472</v>
       </c>
       <c r="M15" t="n">
-        <v>1053.951088731395</v>
+        <v>1163.866446482605</v>
       </c>
       <c r="N15" t="n">
-        <v>1607.815479918953</v>
+        <v>1717.730837670163</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.273396465002</v>
+        <v>2202.188754216213</v>
       </c>
       <c r="P15" t="n">
-        <v>2374.602716674128</v>
+        <v>2571.675876565518</v>
       </c>
       <c r="Q15" t="n">
         <v>2571.675876565518</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>340.8179582373377</v>
+        <v>705.4687079174753</v>
       </c>
       <c r="C16" t="n">
-        <v>340.8179582373377</v>
+        <v>536.5325249895684</v>
       </c>
       <c r="D16" t="n">
-        <v>340.8179582373377</v>
+        <v>386.4158855772327</v>
       </c>
       <c r="E16" t="n">
-        <v>340.8179582373377</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="F16" t="n">
-        <v>262.0734948863332</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="G16" t="n">
-        <v>94.63489309436902</v>
+        <v>238.5027919948396</v>
       </c>
       <c r="H16" t="n">
         <v>94.63489309436902</v>
@@ -5440,46 +5440,46 @@
         <v>392.1427189144666</v>
       </c>
       <c r="L16" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M16" t="n">
-        <v>1131.958067424482</v>
+        <v>1131.958067424483</v>
       </c>
       <c r="N16" t="n">
-        <v>1512.996920827919</v>
+        <v>1512.99692082792</v>
       </c>
       <c r="O16" t="n">
-        <v>1848.931679357069</v>
+        <v>1848.93167935707</v>
       </c>
       <c r="P16" t="n">
-        <v>2112.861217572734</v>
+        <v>2112.861217572735</v>
       </c>
       <c r="Q16" t="n">
         <v>2212.157269137911</v>
       </c>
       <c r="R16" t="n">
-        <v>2212.157269137911</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S16" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T16" t="n">
-        <v>1804.438665417239</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U16" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W16" t="n">
-        <v>971.2485531091252</v>
+        <v>933.4582588154926</v>
       </c>
       <c r="X16" t="n">
-        <v>743.2590022111078</v>
+        <v>705.4687079174753</v>
       </c>
       <c r="Y16" t="n">
-        <v>522.4664230675777</v>
+        <v>705.4687079174753</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J17" t="n">
-        <v>332.5153587655096</v>
+        <v>499.9210077858626</v>
       </c>
       <c r="K17" t="n">
-        <v>739.7750309031826</v>
+        <v>907.1806799235355</v>
       </c>
       <c r="L17" t="n">
-        <v>1281.918428411532</v>
+        <v>1530.104878613095</v>
       </c>
       <c r="M17" t="n">
-        <v>2361.845253590952</v>
+        <v>2165.013305634612</v>
       </c>
       <c r="N17" t="n">
-        <v>3011.640971116833</v>
+        <v>3247.782478328358</v>
       </c>
       <c r="O17" t="n">
-        <v>3611.889379891879</v>
+        <v>3848.030887103403</v>
       </c>
       <c r="P17" t="n">
         <v>4325.828015896205</v>
@@ -5601,19 +5601,19 @@
         <v>939.4128847466716</v>
       </c>
       <c r="M18" t="n">
-        <v>1464.958989438529</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N18" t="n">
-        <v>2018.823380626087</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O18" t="n">
-        <v>2503.281297172137</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P18" t="n">
-        <v>2503.281297172137</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q18" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R18" t="n">
         <v>2571.675876565518</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>574.8775767147106</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="C19" t="n">
-        <v>405.9413937868037</v>
+        <v>490.8580108527481</v>
       </c>
       <c r="D19" t="n">
-        <v>405.9413937868037</v>
+        <v>409.9865884687264</v>
       </c>
       <c r="E19" t="n">
-        <v>405.9413937868037</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F19" t="n">
-        <v>405.9413937868037</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="G19" t="n">
-        <v>238.5027919948396</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="H19" t="n">
         <v>94.63489309436902</v>
@@ -5671,13 +5671,13 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J19" t="n">
-        <v>158.0671683427672</v>
+        <v>158.0671683427673</v>
       </c>
       <c r="K19" t="n">
-        <v>392.1427189144665</v>
+        <v>392.1427189144667</v>
       </c>
       <c r="L19" t="n">
-        <v>747.2052688577706</v>
+        <v>747.205268857771</v>
       </c>
       <c r="M19" t="n">
         <v>1131.958067424482</v>
@@ -5689,7 +5689,7 @@
         <v>1848.931679357069</v>
       </c>
       <c r="P19" t="n">
-        <v>2112.861217572735</v>
+        <v>2112.861217572734</v>
       </c>
       <c r="Q19" t="n">
         <v>2212.157269137911</v>
@@ -5698,25 +5698,25 @@
         <v>2134.207770855304</v>
       </c>
       <c r="S19" t="n">
-        <v>1947.126779186389</v>
+        <v>1947.126779186388</v>
       </c>
       <c r="T19" t="n">
-        <v>1749.409829829345</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U19" t="n">
-        <v>1749.409829829345</v>
+        <v>1437.400713069365</v>
       </c>
       <c r="V19" t="n">
-        <v>1494.725341623458</v>
+        <v>1182.716224863478</v>
       </c>
       <c r="W19" t="n">
-        <v>1205.308171586498</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="X19" t="n">
-        <v>977.3186206884805</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="Y19" t="n">
-        <v>756.5260415449503</v>
+        <v>672.5064756829878</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J20" t="n">
-        <v>499.9210077858626</v>
+        <v>332.5153587655096</v>
       </c>
       <c r="K20" t="n">
-        <v>1228.084638368989</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L20" t="n">
-        <v>1770.228035877338</v>
+        <v>1281.918428411532</v>
       </c>
       <c r="M20" t="n">
-        <v>2405.136462898854</v>
+        <v>2279.406039712708</v>
       </c>
       <c r="N20" t="n">
-        <v>3054.932180424736</v>
+        <v>2929.20175723859</v>
       </c>
       <c r="O20" t="n">
-        <v>3655.180589199781</v>
+        <v>3529.450166013635</v>
       </c>
       <c r="P20" t="n">
         <v>4325.828015896205</v>
@@ -5829,28 +5829,28 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J21" t="n">
-        <v>204.5502508455791</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="K21" t="n">
-        <v>204.5502508455791</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="L21" t="n">
-        <v>638.3203417907472</v>
+        <v>651.2671127919409</v>
       </c>
       <c r="M21" t="n">
-        <v>1163.866446482605</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.730837670163</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O21" t="n">
-        <v>2202.188754216213</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P21" t="n">
-        <v>2571.675876565518</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q21" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R21" t="n">
         <v>2571.675876565518</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>704.6339398295338</v>
+        <v>630.2351282742989</v>
       </c>
       <c r="C22" t="n">
-        <v>535.6977569016269</v>
+        <v>461.298945346392</v>
       </c>
       <c r="D22" t="n">
-        <v>385.5811174892913</v>
+        <v>311.1823059340567</v>
       </c>
       <c r="E22" t="n">
-        <v>351.4529099896957</v>
+        <v>311.1823059340567</v>
       </c>
       <c r="F22" t="n">
-        <v>351.4529099896957</v>
+        <v>311.1823059340567</v>
       </c>
       <c r="G22" t="n">
-        <v>184.0143081977315</v>
+        <v>311.1823059340567</v>
       </c>
       <c r="H22" t="n">
-        <v>184.0143081977315</v>
+        <v>167.3144070335861</v>
       </c>
       <c r="I22" t="n">
         <v>94.63489309436902</v>
@@ -5911,10 +5911,10 @@
         <v>158.0671683427673</v>
       </c>
       <c r="K22" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L22" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M22" t="n">
         <v>1131.958067424482</v>
@@ -5932,28 +5932,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R22" t="n">
-        <v>2134.207770855305</v>
+        <v>2212.157269137911</v>
       </c>
       <c r="S22" t="n">
-        <v>2134.207770855305</v>
+        <v>2025.076277468996</v>
       </c>
       <c r="T22" t="n">
-        <v>1913.570158803548</v>
+        <v>1804.438665417239</v>
       </c>
       <c r="U22" t="n">
-        <v>1624.481704738282</v>
+        <v>1515.350211351973</v>
       </c>
       <c r="V22" t="n">
-        <v>1624.481704738282</v>
+        <v>1260.665723146086</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.064534701321</v>
+        <v>1260.665723146086</v>
       </c>
       <c r="X22" t="n">
-        <v>1107.074983803304</v>
+        <v>1032.676172248069</v>
       </c>
       <c r="Y22" t="n">
-        <v>886.2824046597735</v>
+        <v>811.8835931045386</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J23" t="n">
-        <v>499.9210077858626</v>
+        <v>332.5153587655096</v>
       </c>
       <c r="K23" t="n">
-        <v>907.1806799235355</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L23" t="n">
-        <v>1449.324077431884</v>
+        <v>1281.918428411532</v>
       </c>
       <c r="M23" t="n">
-        <v>2084.232504453401</v>
+        <v>2220.994581352358</v>
       </c>
       <c r="N23" t="n">
-        <v>2734.028221979283</v>
+        <v>2870.79029887824</v>
       </c>
       <c r="O23" t="n">
-        <v>3334.276630754328</v>
+        <v>3848.030887103403</v>
       </c>
       <c r="P23" t="n">
-        <v>4130.654480636898</v>
+        <v>4325.828015896205</v>
       </c>
       <c r="Q23" t="n">
         <v>4636.461014673262</v>
@@ -6069,10 +6069,10 @@
         <v>94.63489309436902</v>
       </c>
       <c r="K24" t="n">
-        <v>376.9642133034943</v>
+        <v>382.7806650490997</v>
       </c>
       <c r="L24" t="n">
-        <v>810.7343042486624</v>
+        <v>816.5507559942678</v>
       </c>
       <c r="M24" t="n">
         <v>1336.28040894052</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>814.3736312304089</v>
+        <v>262.8684599547309</v>
       </c>
       <c r="C25" t="n">
-        <v>645.437448302502</v>
+        <v>262.8684599547309</v>
       </c>
       <c r="D25" t="n">
-        <v>495.3208088901663</v>
+        <v>262.8684599547309</v>
       </c>
       <c r="E25" t="n">
-        <v>495.3208088901663</v>
+        <v>262.8684599547309</v>
       </c>
       <c r="F25" t="n">
-        <v>495.3208088901663</v>
+        <v>262.8684599547309</v>
       </c>
       <c r="G25" t="n">
-        <v>327.8822070982021</v>
+        <v>95.42985816276671</v>
       </c>
       <c r="H25" t="n">
-        <v>184.0143081977315</v>
+        <v>95.42985816276671</v>
       </c>
       <c r="I25" t="n">
         <v>94.63489309436902</v>
@@ -6157,10 +6157,10 @@
         <v>1131.958067424482</v>
       </c>
       <c r="N25" t="n">
-        <v>1512.996920827919</v>
+        <v>1512.99692082792</v>
       </c>
       <c r="O25" t="n">
-        <v>1848.931679357069</v>
+        <v>1848.93167935707</v>
       </c>
       <c r="P25" t="n">
         <v>2112.861217572735</v>
@@ -6172,25 +6172,25 @@
         <v>2134.207770855304</v>
       </c>
       <c r="S25" t="n">
-        <v>2134.207770855304</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T25" t="n">
-        <v>1913.570158803547</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U25" t="n">
-        <v>1624.481704738281</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V25" t="n">
-        <v>1369.797216532395</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.155761271956</v>
+        <v>893.299054826518</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.166210373939</v>
+        <v>665.3095039285007</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.3736312304089</v>
+        <v>444.5169247849706</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>405.4726416828662</v>
       </c>
       <c r="H26" t="n">
-        <v>113.9218158622716</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I26" t="n">
         <v>94.63489309436902</v>
@@ -6227,22 +6227,22 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K26" t="n">
-        <v>739.7750309031826</v>
+        <v>797.2584931143591</v>
       </c>
       <c r="L26" t="n">
-        <v>1281.918428411532</v>
+        <v>1752.886493027654</v>
       </c>
       <c r="M26" t="n">
-        <v>2279.406039712708</v>
+        <v>2387.79492004917</v>
       </c>
       <c r="N26" t="n">
-        <v>2929.20175723859</v>
+        <v>3037.590637575052</v>
       </c>
       <c r="O26" t="n">
-        <v>3529.450166013635</v>
+        <v>3637.839046350097</v>
       </c>
       <c r="P26" t="n">
-        <v>4325.828015896205</v>
+        <v>4115.636175142899</v>
       </c>
       <c r="Q26" t="n">
         <v>4636.461014673262</v>
@@ -6312,19 +6312,19 @@
         <v>939.4128847466716</v>
       </c>
       <c r="M27" t="n">
-        <v>1464.958989438529</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N27" t="n">
-        <v>2018.823380626087</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O27" t="n">
-        <v>2503.281297172137</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P27" t="n">
-        <v>2571.675876565518</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q27" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R27" t="n">
         <v>2571.675876565518</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>875.9293583068794</v>
+        <v>729.0394108089688</v>
       </c>
       <c r="C28" t="n">
-        <v>706.9931753789725</v>
+        <v>560.1032278810619</v>
       </c>
       <c r="D28" t="n">
-        <v>556.8765359666367</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="E28" t="n">
-        <v>408.9634423842435</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F28" t="n">
         <v>262.0734948863332</v>
@@ -6382,52 +6382,52 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J28" t="n">
-        <v>158.0671683427673</v>
+        <v>158.0671683427677</v>
       </c>
       <c r="K28" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144672</v>
       </c>
       <c r="L28" t="n">
-        <v>747.2052688577706</v>
+        <v>747.2052688577712</v>
       </c>
       <c r="M28" t="n">
         <v>1131.958067424482</v>
       </c>
       <c r="N28" t="n">
-        <v>1512.996920827919</v>
+        <v>1512.99692082792</v>
       </c>
       <c r="O28" t="n">
-        <v>1848.931679357069</v>
+        <v>1848.93167935707</v>
       </c>
       <c r="P28" t="n">
-        <v>2112.861217572734</v>
+        <v>2112.861217572735</v>
       </c>
       <c r="Q28" t="n">
-        <v>2212.157269137911</v>
+        <v>2212.157269137912</v>
       </c>
       <c r="R28" t="n">
-        <v>2134.207770855304</v>
+        <v>2134.207770855305</v>
       </c>
       <c r="S28" t="n">
-        <v>1947.126779186388</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T28" t="n">
-        <v>1726.489167134632</v>
+        <v>1726.489167134633</v>
       </c>
       <c r="U28" t="n">
-        <v>1726.489167134632</v>
+        <v>1726.489167134633</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.804678928745</v>
+        <v>1648.887175717717</v>
       </c>
       <c r="W28" t="n">
-        <v>1324.711488348427</v>
+        <v>1359.470005680756</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.72193745041</v>
+        <v>1131.480454782739</v>
       </c>
       <c r="Y28" t="n">
-        <v>875.9293583068794</v>
+        <v>910.6878756392085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2343.958398538717</v>
+        <v>2343.958398538718</v>
       </c>
       <c r="C29" t="n">
-        <v>1974.995881598306</v>
+        <v>1974.995881598307</v>
       </c>
       <c r="D29" t="n">
-        <v>1616.730182991555</v>
+        <v>1616.730182991556</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.941930393311</v>
+        <v>1230.941930393312</v>
       </c>
       <c r="F29" t="n">
-        <v>819.9560256037039</v>
+        <v>819.9560256037048</v>
       </c>
       <c r="G29" t="n">
-        <v>405.472641682866</v>
+        <v>405.4726416828659</v>
       </c>
       <c r="H29" t="n">
-        <v>113.921815862271</v>
+        <v>113.9218158622709</v>
       </c>
       <c r="I29" t="n">
-        <v>94.63489309436898</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="J29" t="n">
-        <v>499.9210077858626</v>
+        <v>332.5153587655096</v>
       </c>
       <c r="K29" t="n">
-        <v>1228.084638368989</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L29" t="n">
-        <v>1770.228035877338</v>
+        <v>1281.918428411532</v>
       </c>
       <c r="M29" t="n">
-        <v>2405.136462898854</v>
+        <v>2361.845253590952</v>
       </c>
       <c r="N29" t="n">
-        <v>3054.932180424736</v>
+        <v>3011.640971116833</v>
       </c>
       <c r="O29" t="n">
-        <v>3655.180589199781</v>
+        <v>3611.889379891879</v>
       </c>
       <c r="P29" t="n">
-        <v>4325.828015896203</v>
+        <v>4089.686508684681</v>
       </c>
       <c r="Q29" t="n">
-        <v>4636.46101467326</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R29" t="n">
-        <v>4731.744654718449</v>
+        <v>4731.744654718451</v>
       </c>
       <c r="S29" t="n">
-        <v>4634.877333056569</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T29" t="n">
-        <v>4431.478222880846</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U29" t="n">
-        <v>4177.994871453416</v>
+        <v>4177.994871453417</v>
       </c>
       <c r="V29" t="n">
-        <v>3846.931984109845</v>
+        <v>3846.931984109846</v>
       </c>
       <c r="W29" t="n">
-        <v>3494.163328839731</v>
+        <v>3494.163328839732</v>
       </c>
       <c r="X29" t="n">
-        <v>3120.697570578651</v>
+        <v>3120.697570578652</v>
       </c>
       <c r="Y29" t="n">
-        <v>2730.558238602839</v>
+        <v>2730.55823860284</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>102.7906538237253</v>
       </c>
       <c r="I30" t="n">
-        <v>94.63489309436898</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="J30" t="n">
-        <v>94.63489309436898</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="K30" t="n">
-        <v>94.63489309436898</v>
+        <v>505.6427938015036</v>
       </c>
       <c r="L30" t="n">
-        <v>528.4049840395371</v>
+        <v>939.4128847466716</v>
       </c>
       <c r="M30" t="n">
-        <v>1053.951088731395</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.657677778773</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.115594324822</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P30" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q30" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R30" t="n">
         <v>2571.675876565518</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>262.8684599547312</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="C31" t="n">
-        <v>242.5479866767621</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="D31" t="n">
-        <v>242.5479866767621</v>
+        <v>409.9865884687263</v>
       </c>
       <c r="E31" t="n">
-        <v>94.63489309436898</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="F31" t="n">
-        <v>94.63489309436898</v>
+        <v>262.0734948863332</v>
       </c>
       <c r="G31" t="n">
-        <v>94.63489309436898</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="H31" t="n">
-        <v>94.63489309436898</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="I31" t="n">
-        <v>94.63489309436898</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="J31" t="n">
-        <v>158.067168342767</v>
+        <v>158.0671683427673</v>
       </c>
       <c r="K31" t="n">
-        <v>392.1427189144663</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L31" t="n">
-        <v>747.2052688577703</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M31" t="n">
         <v>1131.958067424482</v>
@@ -6658,13 +6658,13 @@
         <v>1182.716224863479</v>
       </c>
       <c r="W31" t="n">
-        <v>893.2990548265184</v>
+        <v>893.2990548265179</v>
       </c>
       <c r="X31" t="n">
-        <v>665.309503928501</v>
+        <v>812.4276324424961</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.5169247849709</v>
+        <v>591.635053298966</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2343.958398538718</v>
+        <v>2343.958398538719</v>
       </c>
       <c r="C32" t="n">
-        <v>1974.995881598307</v>
+        <v>1974.995881598308</v>
       </c>
       <c r="D32" t="n">
-        <v>1616.730182991556</v>
+        <v>1616.730182991557</v>
       </c>
       <c r="E32" t="n">
-        <v>1230.941930393312</v>
+        <v>1230.941930393313</v>
       </c>
       <c r="F32" t="n">
-        <v>819.9560256037048</v>
+        <v>819.9560256037057</v>
       </c>
       <c r="G32" t="n">
-        <v>405.4726416828662</v>
+        <v>405.472641682866</v>
       </c>
       <c r="H32" t="n">
-        <v>113.9218158622716</v>
+        <v>113.921815862271</v>
       </c>
       <c r="I32" t="n">
         <v>94.63489309436902</v>
@@ -6701,49 +6701,49 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K32" t="n">
-        <v>1060.678989348636</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L32" t="n">
-        <v>1602.822386856985</v>
+        <v>1310.835057903284</v>
       </c>
       <c r="M32" t="n">
-        <v>2237.730813878501</v>
+        <v>1945.7434849248</v>
       </c>
       <c r="N32" t="n">
-        <v>2887.526531404383</v>
+        <v>2595.539202450682</v>
       </c>
       <c r="O32" t="n">
-        <v>3848.030887103403</v>
+        <v>3572.779790675845</v>
       </c>
       <c r="P32" t="n">
-        <v>4325.828015896205</v>
+        <v>4050.576919468647</v>
       </c>
       <c r="Q32" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R32" t="n">
         <v>4731.744654718451</v>
       </c>
       <c r="S32" t="n">
-        <v>4634.87733305657</v>
+        <v>4634.877333056571</v>
       </c>
       <c r="T32" t="n">
-        <v>4431.478222880847</v>
+        <v>4431.478222880848</v>
       </c>
       <c r="U32" t="n">
-        <v>4177.994871453417</v>
+        <v>4177.994871453418</v>
       </c>
       <c r="V32" t="n">
-        <v>3846.931984109846</v>
+        <v>3846.931984109847</v>
       </c>
       <c r="W32" t="n">
         <v>3494.163328839732</v>
       </c>
       <c r="X32" t="n">
-        <v>3120.697570578652</v>
+        <v>3120.697570578653</v>
       </c>
       <c r="Y32" t="n">
-        <v>2730.55823860284</v>
+        <v>2730.558238602841</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J33" t="n">
-        <v>94.63489309436902</v>
+        <v>184.7514364487823</v>
       </c>
       <c r="K33" t="n">
-        <v>94.63489309436902</v>
+        <v>472.8972084035129</v>
       </c>
       <c r="L33" t="n">
-        <v>528.4049840395371</v>
+        <v>906.667299348681</v>
       </c>
       <c r="M33" t="n">
-        <v>1053.951088731395</v>
+        <v>1432.213404040539</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.657677778773</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.115594324822</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P33" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q33" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R33" t="n">
         <v>2571.675876565518</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>340.8179582373381</v>
+        <v>490.8580108527486</v>
       </c>
       <c r="C34" t="n">
-        <v>340.8179582373381</v>
+        <v>490.8580108527486</v>
       </c>
       <c r="D34" t="n">
-        <v>242.5479866767622</v>
+        <v>490.8580108527486</v>
       </c>
       <c r="E34" t="n">
-        <v>94.63489309436902</v>
+        <v>490.8580108527486</v>
       </c>
       <c r="F34" t="n">
-        <v>94.63489309436902</v>
+        <v>343.9680633548383</v>
       </c>
       <c r="G34" t="n">
-        <v>94.63489309436902</v>
+        <v>176.529461562874</v>
       </c>
       <c r="H34" t="n">
         <v>94.63489309436902</v>
@@ -6859,16 +6859,16 @@
         <v>158.0671683427673</v>
       </c>
       <c r="K34" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L34" t="n">
-        <v>747.2052688577708</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M34" t="n">
         <v>1131.958067424482</v>
       </c>
       <c r="N34" t="n">
-        <v>1512.996920827919</v>
+        <v>1512.99692082792</v>
       </c>
       <c r="O34" t="n">
         <v>1848.931679357069</v>
@@ -6880,28 +6880,28 @@
         <v>2212.157269137911</v>
       </c>
       <c r="R34" t="n">
-        <v>2212.157269137911</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S34" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T34" t="n">
-        <v>1804.438665417239</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U34" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W34" t="n">
-        <v>971.2485531091254</v>
+        <v>893.2990548265184</v>
       </c>
       <c r="X34" t="n">
-        <v>743.2590022111081</v>
+        <v>893.2990548265184</v>
       </c>
       <c r="Y34" t="n">
-        <v>522.4664230675778</v>
+        <v>672.5064756829884</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2343.958398538719</v>
+        <v>2343.95839853872</v>
       </c>
       <c r="C35" t="n">
         <v>1974.995881598307</v>
@@ -6923,7 +6923,7 @@
         <v>1230.941930393313</v>
       </c>
       <c r="F35" t="n">
-        <v>819.9560256037053</v>
+        <v>819.956025603705</v>
       </c>
       <c r="G35" t="n">
         <v>405.472641682866</v>
@@ -6941,16 +6941,16 @@
         <v>739.7750309031826</v>
       </c>
       <c r="L35" t="n">
-        <v>1281.918428411532</v>
+        <v>1644.497612691192</v>
       </c>
       <c r="M35" t="n">
-        <v>1916.826855433048</v>
+        <v>2279.406039712708</v>
       </c>
       <c r="N35" t="n">
-        <v>2566.62257295893</v>
+        <v>2929.20175723859</v>
       </c>
       <c r="O35" t="n">
-        <v>3543.863161184093</v>
+        <v>3529.450166013635</v>
       </c>
       <c r="P35" t="n">
         <v>4325.828015896205</v>
@@ -6971,16 +6971,16 @@
         <v>4177.994871453418</v>
       </c>
       <c r="V35" t="n">
-        <v>3846.931984109847</v>
+        <v>3846.931984109848</v>
       </c>
       <c r="W35" t="n">
-        <v>3494.163328839732</v>
+        <v>3494.163328839733</v>
       </c>
       <c r="X35" t="n">
-        <v>3120.697570578653</v>
+        <v>3120.697570578654</v>
       </c>
       <c r="Y35" t="n">
-        <v>2730.558238602841</v>
+        <v>2730.558238602842</v>
       </c>
     </row>
     <row r="36">
@@ -7026,16 +7026,16 @@
         <v>1053.951088731395</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.657677778773</v>
+        <v>1607.815479918953</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.115594324822</v>
+        <v>2092.273396465002</v>
       </c>
       <c r="P36" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q36" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R36" t="n">
         <v>2571.675876565518</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>340.8179582373383</v>
+        <v>490.8580108527489</v>
       </c>
       <c r="C37" t="n">
-        <v>340.8179582373383</v>
+        <v>321.921827924842</v>
       </c>
       <c r="D37" t="n">
-        <v>242.5479866767622</v>
+        <v>171.8051885125062</v>
       </c>
       <c r="E37" t="n">
-        <v>94.63489309436902</v>
+        <v>171.8051885125062</v>
       </c>
       <c r="F37" t="n">
-        <v>94.63489309436902</v>
+        <v>171.8051885125062</v>
       </c>
       <c r="G37" t="n">
         <v>94.63489309436902</v>
@@ -7093,22 +7093,22 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J37" t="n">
-        <v>158.0671683427674</v>
+        <v>158.0671683427673</v>
       </c>
       <c r="K37" t="n">
-        <v>392.1427189144667</v>
+        <v>392.1427189144666</v>
       </c>
       <c r="L37" t="n">
-        <v>747.205268857771</v>
+        <v>747.2052688577708</v>
       </c>
       <c r="M37" t="n">
         <v>1131.958067424482</v>
       </c>
       <c r="N37" t="n">
-        <v>1512.99692082792</v>
+        <v>1512.996920827919</v>
       </c>
       <c r="O37" t="n">
-        <v>1848.93167935707</v>
+        <v>1848.931679357069</v>
       </c>
       <c r="P37" t="n">
         <v>2112.861217572735</v>
@@ -7117,28 +7117,28 @@
         <v>2212.157269137912</v>
       </c>
       <c r="R37" t="n">
-        <v>2212.157269137912</v>
+        <v>2134.207770855305</v>
       </c>
       <c r="S37" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T37" t="n">
-        <v>1804.43866541724</v>
+        <v>1726.489167134633</v>
       </c>
       <c r="U37" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.71622486348</v>
       </c>
       <c r="W37" t="n">
-        <v>971.2485531091256</v>
+        <v>893.2990548265188</v>
       </c>
       <c r="X37" t="n">
-        <v>743.2590022111083</v>
+        <v>893.2990548265188</v>
       </c>
       <c r="Y37" t="n">
-        <v>522.4664230675781</v>
+        <v>672.5064756829886</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1616.730182991557</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.941930393313</v>
+        <v>1230.941930393312</v>
       </c>
       <c r="F38" t="n">
-        <v>819.956025603705</v>
+        <v>819.9560256037047</v>
       </c>
       <c r="G38" t="n">
-        <v>405.4726416828661</v>
+        <v>405.4726416828657</v>
       </c>
       <c r="H38" t="n">
         <v>113.921815862271</v>
@@ -7175,34 +7175,34 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K38" t="n">
-        <v>1060.678989348636</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L38" t="n">
-        <v>1602.822386856985</v>
+        <v>1369.246516263634</v>
       </c>
       <c r="M38" t="n">
-        <v>2237.730813878501</v>
+        <v>2004.15494328515</v>
       </c>
       <c r="N38" t="n">
-        <v>2887.526531404383</v>
+        <v>2653.950660811032</v>
       </c>
       <c r="O38" t="n">
-        <v>3848.030887103403</v>
+        <v>3254.199069586077</v>
       </c>
       <c r="P38" t="n">
-        <v>4325.828015896205</v>
+        <v>4050.576919468647</v>
       </c>
       <c r="Q38" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R38" t="n">
         <v>4731.744654718451</v>
       </c>
       <c r="S38" t="n">
-        <v>4634.877333056571</v>
+        <v>4634.87733305657</v>
       </c>
       <c r="T38" t="n">
-        <v>4431.478222880848</v>
+        <v>4431.478222880847</v>
       </c>
       <c r="U38" t="n">
         <v>4177.994871453418</v>
@@ -7254,25 +7254,25 @@
         <v>94.63489309436902</v>
       </c>
       <c r="K39" t="n">
-        <v>94.63489309436902</v>
+        <v>382.7806650490997</v>
       </c>
       <c r="L39" t="n">
-        <v>441.2471818993569</v>
+        <v>422.2093828026315</v>
       </c>
       <c r="M39" t="n">
-        <v>966.7932865912148</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.657677778773</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.115594324822</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P39" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q39" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R39" t="n">
         <v>2571.675876565518</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>340.8179582373376</v>
+        <v>646.9350294384448</v>
       </c>
       <c r="C40" t="n">
-        <v>340.8179582373376</v>
+        <v>477.9988465105379</v>
       </c>
       <c r="D40" t="n">
-        <v>242.5479866767622</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="E40" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="F40" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="H40" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I40" t="n">
         <v>94.63489309436902</v>
       </c>
       <c r="J40" t="n">
-        <v>158.0671683427673</v>
+        <v>158.0671683427671</v>
       </c>
       <c r="K40" t="n">
-        <v>392.1427189144666</v>
+        <v>392.1427189144665</v>
       </c>
       <c r="L40" t="n">
-        <v>747.2052688577709</v>
+        <v>747.2052688577706</v>
       </c>
       <c r="M40" t="n">
         <v>1131.958067424482</v>
       </c>
       <c r="N40" t="n">
-        <v>1512.996920827919</v>
+        <v>1512.99692082792</v>
       </c>
       <c r="O40" t="n">
         <v>1848.931679357069</v>
       </c>
       <c r="P40" t="n">
-        <v>2112.861217572734</v>
+        <v>2112.861217572735</v>
       </c>
       <c r="Q40" t="n">
         <v>2212.157269137911</v>
       </c>
       <c r="R40" t="n">
-        <v>2212.157269137911</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S40" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T40" t="n">
-        <v>1804.438665417239</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U40" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.665723146086</v>
+        <v>1182.716224863479</v>
       </c>
       <c r="W40" t="n">
-        <v>971.2485531091254</v>
+        <v>893.2990548265184</v>
       </c>
       <c r="X40" t="n">
-        <v>743.2590022111081</v>
+        <v>893.2990548265184</v>
       </c>
       <c r="Y40" t="n">
-        <v>522.4664230675779</v>
+        <v>672.5064756829883</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1616.730182991557</v>
       </c>
       <c r="E41" t="n">
-        <v>1230.941930393312</v>
+        <v>1230.941930393313</v>
       </c>
       <c r="F41" t="n">
-        <v>819.9560256037048</v>
+        <v>819.956025603705</v>
       </c>
       <c r="G41" t="n">
         <v>405.4726416828661</v>
@@ -7412,25 +7412,25 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K41" t="n">
-        <v>892.1623744295373</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L41" t="n">
-        <v>1434.305771937886</v>
+        <v>1695.403030816477</v>
       </c>
       <c r="M41" t="n">
-        <v>2069.214198959402</v>
+        <v>2330.311457837994</v>
       </c>
       <c r="N41" t="n">
-        <v>2719.009916485284</v>
+        <v>2980.107175363875</v>
       </c>
       <c r="O41" t="n">
-        <v>3319.258325260329</v>
+        <v>3782.971631429151</v>
       </c>
       <c r="P41" t="n">
-        <v>4115.636175142899</v>
+        <v>4260.768760221953</v>
       </c>
       <c r="Q41" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R41" t="n">
         <v>4731.744654718451</v>
@@ -7488,28 +7488,28 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J42" t="n">
-        <v>203.7892355455077</v>
+        <v>94.63489309436902</v>
       </c>
       <c r="K42" t="n">
-        <v>491.9350075002383</v>
+        <v>382.7806650490997</v>
       </c>
       <c r="L42" t="n">
-        <v>925.7050984454064</v>
+        <v>816.5507559942678</v>
       </c>
       <c r="M42" t="n">
-        <v>1451.251203137264</v>
+        <v>1342.096860686126</v>
       </c>
       <c r="N42" t="n">
-        <v>2005.115594324822</v>
+        <v>1895.961251873684</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.115594324822</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P42" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q42" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R42" t="n">
         <v>2571.675876565518</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>340.8179582373389</v>
+        <v>482.0440411924604</v>
       </c>
       <c r="C43" t="n">
-        <v>340.8179582373389</v>
+        <v>482.0440411924604</v>
       </c>
       <c r="D43" t="n">
-        <v>340.8179582373389</v>
+        <v>331.9274017801248</v>
       </c>
       <c r="E43" t="n">
-        <v>192.9048646549458</v>
+        <v>184.0143081977317</v>
       </c>
       <c r="F43" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977317</v>
       </c>
       <c r="G43" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977317</v>
       </c>
       <c r="H43" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977317</v>
       </c>
       <c r="I43" t="n">
         <v>94.63489309436902</v>
@@ -7588,31 +7588,31 @@
         <v>2112.861217572735</v>
       </c>
       <c r="Q43" t="n">
-        <v>2212.157269137912</v>
+        <v>2212.157269137911</v>
       </c>
       <c r="R43" t="n">
-        <v>2212.157269137912</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S43" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T43" t="n">
-        <v>1804.43866541724</v>
+        <v>1726.489167134632</v>
       </c>
       <c r="U43" t="n">
-        <v>1515.350211351973</v>
+        <v>1437.400713069366</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.665723146087</v>
+        <v>1220.243341270969</v>
       </c>
       <c r="W43" t="n">
-        <v>971.2485531091259</v>
+        <v>930.826171234008</v>
       </c>
       <c r="X43" t="n">
-        <v>743.2590022111085</v>
+        <v>702.8366203359906</v>
       </c>
       <c r="Y43" t="n">
-        <v>522.4664230675786</v>
+        <v>482.0440411924604</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>819.956025603705</v>
       </c>
       <c r="G44" t="n">
-        <v>405.472641682866</v>
+        <v>405.4726416828661</v>
       </c>
       <c r="H44" t="n">
         <v>113.921815862271</v>
@@ -7649,25 +7649,25 @@
         <v>332.5153587655096</v>
       </c>
       <c r="K44" t="n">
-        <v>1060.678989348636</v>
+        <v>739.7750309031826</v>
       </c>
       <c r="L44" t="n">
-        <v>1602.822386856985</v>
+        <v>1281.918428411532</v>
       </c>
       <c r="M44" t="n">
-        <v>2237.730813878501</v>
+        <v>2214.346784038456</v>
       </c>
       <c r="N44" t="n">
-        <v>2887.526531404383</v>
+        <v>2864.142501564338</v>
       </c>
       <c r="O44" t="n">
-        <v>3487.774940179428</v>
+        <v>3464.390910339383</v>
       </c>
       <c r="P44" t="n">
-        <v>4115.636175142899</v>
+        <v>4260.768760221953</v>
       </c>
       <c r="Q44" t="n">
-        <v>4636.461014673262</v>
+        <v>4571.40175899901</v>
       </c>
       <c r="R44" t="n">
         <v>4731.744654718451</v>
@@ -7685,10 +7685,10 @@
         <v>3846.931984109847</v>
       </c>
       <c r="W44" t="n">
-        <v>3494.163328839733</v>
+        <v>3494.163328839732</v>
       </c>
       <c r="X44" t="n">
-        <v>3120.697570578654</v>
+        <v>3120.697570578653</v>
       </c>
       <c r="Y44" t="n">
         <v>2730.558238602841</v>
@@ -7725,28 +7725,28 @@
         <v>94.63489309436902</v>
       </c>
       <c r="J45" t="n">
-        <v>94.63489309436902</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="K45" t="n">
-        <v>94.63489309436902</v>
+        <v>217.4970218467729</v>
       </c>
       <c r="L45" t="n">
-        <v>441.2471818993569</v>
+        <v>422.2093828026315</v>
       </c>
       <c r="M45" t="n">
-        <v>966.7932865912148</v>
+        <v>947.7554874944894</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.657677778773</v>
+        <v>1501.619878682047</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.115594324822</v>
+        <v>1986.077795228097</v>
       </c>
       <c r="P45" t="n">
-        <v>2374.602716674128</v>
+        <v>2355.564917577402</v>
       </c>
       <c r="Q45" t="n">
-        <v>2571.675876565518</v>
+        <v>2552.638077468793</v>
       </c>
       <c r="R45" t="n">
         <v>2571.675876565518</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>340.8179582373381</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="C46" t="n">
-        <v>241.5248405922794</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="D46" t="n">
-        <v>241.5248405922794</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="E46" t="n">
-        <v>241.5248405922794</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="F46" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="G46" t="n">
-        <v>94.63489309436902</v>
+        <v>327.8822070982021</v>
       </c>
       <c r="H46" t="n">
-        <v>94.63489309436902</v>
+        <v>184.0143081977315</v>
       </c>
       <c r="I46" t="n">
         <v>94.63489309436902</v>
@@ -7807,49 +7807,49 @@
         <v>158.0671683427673</v>
       </c>
       <c r="K46" t="n">
-        <v>392.1427189144665</v>
+        <v>392.1427189144666</v>
       </c>
       <c r="L46" t="n">
-        <v>747.2052688577706</v>
+        <v>747.2052688577708</v>
       </c>
       <c r="M46" t="n">
-        <v>1131.958067424483</v>
+        <v>1131.958067424482</v>
       </c>
       <c r="N46" t="n">
-        <v>1512.99692082792</v>
+        <v>1512.996920827919</v>
       </c>
       <c r="O46" t="n">
-        <v>1848.93167935707</v>
+        <v>1848.931679357069</v>
       </c>
       <c r="P46" t="n">
         <v>2112.861217572735</v>
       </c>
       <c r="Q46" t="n">
-        <v>2212.157269137912</v>
+        <v>2212.157269137911</v>
       </c>
       <c r="R46" t="n">
-        <v>2212.157269137912</v>
+        <v>2134.207770855304</v>
       </c>
       <c r="S46" t="n">
-        <v>2025.076277468996</v>
+        <v>1947.126779186389</v>
       </c>
       <c r="T46" t="n">
-        <v>1804.438665417239</v>
+        <v>1791.502914278104</v>
       </c>
       <c r="U46" t="n">
-        <v>1515.350211351973</v>
+        <v>1502.414460212837</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.665723146086</v>
+        <v>1247.72997200695</v>
       </c>
       <c r="W46" t="n">
-        <v>971.2485531091253</v>
+        <v>958.3128019699893</v>
       </c>
       <c r="X46" t="n">
-        <v>743.2590022111079</v>
+        <v>730.323251071972</v>
       </c>
       <c r="Y46" t="n">
-        <v>522.4664230675778</v>
+        <v>509.5306719284418</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.9430030574977</v>
+        <v>267.9751899443178</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>128.6451863472964</v>
       </c>
       <c r="N6" t="n">
-        <v>142.2824969408499</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>151.5799052228984</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.798280710729</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>307.2401271912228</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>270.3790939035175</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>81.59676886991008</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>238.5267749611356</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>366.2416002824851</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>194.7982807107294</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>307.2401271912225</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.1449851104107</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>58.06410324361269</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>366.2416002824851</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>194.7982807107275</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>172.8103550881532</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.20871665833579</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>363.894895882803</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>366.2416002824854</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>307.2401271912225</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>88.2101897495985</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>363.894895882803</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>153.9266096225807</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>204.6626740305355</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>300.5251804095032</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>151.5799052228983</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.9664880501951</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.7642157740445</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I13" t="n">
-        <v>88.48562095232886</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4312359312389</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1975695246138</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>216.9838254253519</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.46402930543674</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H16" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>88.48562095232886</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.75761194908446</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.55276485803093</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I19" t="n">
         <v>88.48562095232886</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>22.69145606776573</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1975695246138</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.6470372219695</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.7642157740445</v>
       </c>
       <c r="H22" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>16.53290215250401</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.17000329978111</v>
       </c>
       <c r="S22" t="n">
-        <v>185.2101817522263</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.4292199114659</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.69860553461515</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.2101817522263</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>180.9479576287571</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>286.1975695246138</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>175.3116718210812</v>
       </c>
       <c r="W28" t="n">
-        <v>140.9007396620756</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>147.1295525534384</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.4292199114659</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>145.6469472288556</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>51.32820117324218</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7642157740445</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.4292199114659</v>
+        <v>61.35359712764595</v>
       </c>
       <c r="I34" t="n">
         <v>88.48562095232886</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>51.32820117324195</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7642157740445</v>
+        <v>89.36562331008869</v>
       </c>
       <c r="H37" t="n">
         <v>142.4292199114659</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>154.5162483998392</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>51.32820117324263</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>165.7642157740445</v>
       </c>
       <c r="H40" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.48562095232886</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>48.13377617796024</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.7642157740445</v>
@@ -25804,7 +25804,7 @@
         <v>142.4292199114659</v>
       </c>
       <c r="I43" t="n">
-        <v>88.48562095232886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>37.15184524341441</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>68.9466346300196</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.7642157740445</v>
       </c>
       <c r="H46" t="n">
-        <v>142.4292199114659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>88.48562095232886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.17000329978111</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.36360967203657</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718629.0985058888</v>
+        <v>718629.0985058887</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718629.0985058888</v>
+        <v>718629.0985058887</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718629.0985058887</v>
+        <v>718629.0985058888</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718629.0985058888</v>
+        <v>718629.0985058887</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718629.0985058888</v>
+        <v>718629.0985058887</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
@@ -26323,37 +26323,37 @@
         <v>700816.8008963673</v>
       </c>
       <c r="F2" t="n">
+        <v>700816.8008963673</v>
+      </c>
+      <c r="G2" t="n">
+        <v>700816.8008963669</v>
+      </c>
+      <c r="H2" t="n">
+        <v>700816.8008963673</v>
+      </c>
+      <c r="I2" t="n">
+        <v>700816.8008963675</v>
+      </c>
+      <c r="J2" t="n">
         <v>700816.8008963674</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>700816.8008963674</v>
+      </c>
+      <c r="L2" t="n">
+        <v>700816.8008963674</v>
+      </c>
+      <c r="M2" t="n">
         <v>700816.8008963673</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>700816.8008963674</v>
+      </c>
+      <c r="O2" t="n">
+        <v>700816.8008963672</v>
+      </c>
+      <c r="P2" t="n">
         <v>700816.8008963671</v>
-      </c>
-      <c r="I2" t="n">
-        <v>700816.8008963673</v>
-      </c>
-      <c r="J2" t="n">
-        <v>700816.8008963673</v>
-      </c>
-      <c r="K2" t="n">
-        <v>700816.8008963671</v>
-      </c>
-      <c r="L2" t="n">
-        <v>700816.8008963672</v>
-      </c>
-      <c r="M2" t="n">
-        <v>700816.8008963672</v>
-      </c>
-      <c r="N2" t="n">
-        <v>700816.8008963672</v>
-      </c>
-      <c r="O2" t="n">
-        <v>700816.8008963674</v>
-      </c>
-      <c r="P2" t="n">
-        <v>700816.8008963673</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>222196.7942265949</v>
+        <v>222196.7942265952</v>
       </c>
       <c r="D3" t="n">
-        <v>206847.4224926554</v>
+        <v>206847.4224926551</v>
       </c>
       <c r="E3" t="n">
-        <v>840466.4408057791</v>
+        <v>840466.4408057792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>51661.50476788257</v>
+        <v>51661.50476788276</v>
       </c>
       <c r="L3" t="n">
-        <v>49960.32981559691</v>
+        <v>49960.32981559672</v>
       </c>
       <c r="M3" t="n">
         <v>126757.3382140879</v>
@@ -26424,40 +26424,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>18607.69308186905</v>
+        <v>18607.69308186906</v>
       </c>
       <c r="F4" t="n">
         <v>18607.69308186906</v>
       </c>
       <c r="G4" t="n">
+        <v>18607.69308186905</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18607.69308186905</v>
+      </c>
+      <c r="I4" t="n">
         <v>18607.69308186906</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>18607.69308186906</v>
       </c>
-      <c r="I4" t="n">
-        <v>18607.69308186904</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18607.69308186905</v>
-      </c>
       <c r="K4" t="n">
-        <v>18607.69308186902</v>
+        <v>18607.69308186907</v>
       </c>
       <c r="L4" t="n">
-        <v>18607.69308186905</v>
+        <v>18607.69308186906</v>
       </c>
       <c r="M4" t="n">
         <v>18607.69308186906</v>
       </c>
       <c r="N4" t="n">
-        <v>18607.69308186905</v>
+        <v>18607.69308186906</v>
       </c>
       <c r="O4" t="n">
+        <v>18607.69308186907</v>
+      </c>
+      <c r="P4" t="n">
         <v>18607.69308186906</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18607.69308186901</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>67152.68417133158</v>
+        <v>67152.68417133161</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26494,7 +26494,7 @@
         <v>98842.06615675706</v>
       </c>
       <c r="K5" t="n">
-        <v>98842.06615675704</v>
+        <v>98842.06615675706</v>
       </c>
       <c r="L5" t="n">
         <v>98842.06615675706</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198831.8919480952</v>
+        <v>198831.8919480956</v>
       </c>
       <c r="C6" t="n">
-        <v>149137.3873646489</v>
+        <v>149137.3873646481</v>
       </c>
       <c r="D6" t="n">
-        <v>209924.7230768479</v>
+        <v>209924.7230768483</v>
       </c>
       <c r="E6" t="n">
-        <v>-257099.3991480379</v>
+        <v>-257149.6698558519</v>
       </c>
       <c r="F6" t="n">
-        <v>583367.0416577413</v>
+        <v>583316.7709499273</v>
       </c>
       <c r="G6" t="n">
-        <v>583367.0416577412</v>
+        <v>583316.7709499269</v>
       </c>
       <c r="H6" t="n">
-        <v>583367.0416577409</v>
+        <v>583316.7709499273</v>
       </c>
       <c r="I6" t="n">
-        <v>583367.0416577412</v>
+        <v>583316.7709499275</v>
       </c>
       <c r="J6" t="n">
-        <v>511112.3467866021</v>
+        <v>511062.0760787882</v>
       </c>
       <c r="K6" t="n">
-        <v>531705.5368898584</v>
+        <v>531655.2661820446</v>
       </c>
       <c r="L6" t="n">
-        <v>533406.7118421441</v>
+        <v>533356.4411343307</v>
       </c>
       <c r="M6" t="n">
-        <v>456609.7034436532</v>
+        <v>456559.4327358392</v>
       </c>
       <c r="N6" t="n">
-        <v>583367.0416577411</v>
+        <v>583316.7709499274</v>
       </c>
       <c r="O6" t="n">
-        <v>583367.0416577413</v>
+        <v>583316.7709499272</v>
       </c>
       <c r="P6" t="n">
-        <v>583367.0416577412</v>
+        <v>583316.770949927</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>207.8155030201803</v>
+        <v>207.8155030201806</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>476.8866152219022</v>
+        <v>476.8866152219024</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26814,7 @@
         <v>1182.936163679613</v>
       </c>
       <c r="K4" t="n">
-        <v>1182.936163679612</v>
+        <v>1182.936163679613</v>
       </c>
       <c r="L4" t="n">
         <v>1182.936163679613</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>172.794242301055</v>
+        <v>172.7942423010552</v>
       </c>
       <c r="D3" t="n">
-        <v>169.9281611969063</v>
+        <v>169.928161196906</v>
       </c>
       <c r="E3" t="n">
-        <v>857.0979598671618</v>
+        <v>857.0979598671619</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>200.7301015195467</v>
+        <v>200.730101519547</v>
       </c>
       <c r="D4" t="n">
-        <v>197.4006575326534</v>
+        <v>197.4006575326532</v>
       </c>
       <c r="E4" t="n">
         <v>508.6488909250571</v>
@@ -27036,10 +27036,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>200.7301015195462</v>
+        <v>200.730101519547</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4006575326539</v>
+        <v>197.4006575326532</v>
       </c>
       <c r="M4" t="n">
         <v>508.6488909250571</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>200.7301015195467</v>
+        <v>200.730101519547</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4006575326534</v>
+        <v>197.4006575326532</v>
       </c>
       <c r="M4" t="n">
         <v>508.6488909250571</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>178.7993369999963</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27427,25 +27427,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>182.2685993828186</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>13.37520615014982</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>109.5005379735158</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27591,7 +27591,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>200.0786471289422</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>97.38995978399831</v>
+        <v>97.38995978399825</v>
       </c>
       <c r="S5" t="n">
         <v>189.9824986311806</v>
       </c>
       <c r="T5" t="n">
-        <v>219.4387144305802</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2788177711868</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>73.81406887335942</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>142.1110990418074</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.8965177793559</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>107.9183712397942</v>
       </c>
       <c r="I6" t="n">
-        <v>74.00652248624134</v>
+        <v>74.00652248624132</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.40466188138205</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>163.3803536010976</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.9320947234784</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9119742267739</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.55135477951319</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.3005958085006</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>144.1807424028196</v>
       </c>
       <c r="J7" t="n">
-        <v>66.86440688736225</v>
+        <v>66.86440688736221</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.78190229564716</v>
+        <v>54.78190229564711</v>
       </c>
       <c r="R7" t="n">
         <v>160.4433015749103</v>
       </c>
       <c r="S7" t="n">
-        <v>217.4857403436987</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>226.3443880115686</v>
+        <v>27.74028502953342</v>
       </c>
       <c r="U7" t="n">
         <v>286.2985884873414</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.40509327101734</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8354392081213273</v>
+        <v>0.8354392081213283</v>
       </c>
       <c r="H5" t="n">
-        <v>8.555941790172545</v>
+        <v>8.555941790172556</v>
       </c>
       <c r="I5" t="n">
-        <v>32.2082700710975</v>
+        <v>32.20827007109754</v>
       </c>
       <c r="J5" t="n">
-        <v>70.90685849028758</v>
+        <v>70.90685849028766</v>
       </c>
       <c r="K5" t="n">
-        <v>106.2710001700634</v>
+        <v>106.2710001700635</v>
       </c>
       <c r="L5" t="n">
-        <v>131.8385728356065</v>
+        <v>131.8385728356066</v>
       </c>
       <c r="M5" t="n">
-        <v>146.6958148530341</v>
+        <v>146.6958148530343</v>
       </c>
       <c r="N5" t="n">
-        <v>149.0695065031089</v>
+        <v>149.069506503109</v>
       </c>
       <c r="O5" t="n">
-        <v>140.7621078773524</v>
+        <v>140.7621078773526</v>
       </c>
       <c r="P5" t="n">
-        <v>120.1372024268571</v>
+        <v>120.1372024268573</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.21803578601205</v>
+        <v>90.21803578601217</v>
       </c>
       <c r="R5" t="n">
-        <v>52.47915815715137</v>
+        <v>52.47915815715144</v>
       </c>
       <c r="S5" t="n">
-        <v>19.03757095506477</v>
+        <v>19.03757095506479</v>
       </c>
       <c r="T5" t="n">
-        <v>3.657135133551112</v>
+        <v>3.657135133551117</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06683513664970617</v>
+        <v>0.06683513664970625</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4469993838547275</v>
+        <v>0.4469993838547281</v>
       </c>
       <c r="H6" t="n">
-        <v>4.317072996702238</v>
+        <v>4.317072996702243</v>
       </c>
       <c r="I6" t="n">
-        <v>15.39011036517373</v>
+        <v>15.39011036517375</v>
       </c>
       <c r="J6" t="n">
-        <v>42.23163915620476</v>
+        <v>42.23163915620482</v>
       </c>
       <c r="K6" t="n">
-        <v>72.1805978744715</v>
+        <v>72.1805978744716</v>
       </c>
       <c r="L6" t="n">
-        <v>97.05572148126441</v>
+        <v>97.05572148126454</v>
       </c>
       <c r="M6" t="n">
-        <v>113.2594491459983</v>
+        <v>113.2594491459984</v>
       </c>
       <c r="N6" t="n">
-        <v>116.2570897508837</v>
+        <v>116.2570897508839</v>
       </c>
       <c r="O6" t="n">
-        <v>106.3525244559974</v>
+        <v>106.3525244559975</v>
       </c>
       <c r="P6" t="n">
-        <v>85.35727708011898</v>
+        <v>85.35727708011909</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.05907924433329</v>
+        <v>57.05907924433336</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75317227126108</v>
+        <v>27.75317227126111</v>
       </c>
       <c r="S6" t="n">
-        <v>8.302817502740218</v>
+        <v>8.302817502740229</v>
       </c>
       <c r="T6" t="n">
-        <v>1.801721200712695</v>
+        <v>1.801721200712697</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02940785420096893</v>
+        <v>0.02940785420096896</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3747492677413087</v>
+        <v>0.3747492677413092</v>
       </c>
       <c r="H7" t="n">
-        <v>3.331861671372729</v>
+        <v>3.331861671372733</v>
       </c>
       <c r="I7" t="n">
-        <v>11.26973252443863</v>
+        <v>11.26973252443865</v>
       </c>
       <c r="J7" t="n">
-        <v>26.49477322931053</v>
+        <v>26.49477322931056</v>
       </c>
       <c r="K7" t="n">
-        <v>43.53905128849023</v>
+        <v>43.53905128849028</v>
       </c>
       <c r="L7" t="n">
-        <v>55.71499567855786</v>
+        <v>55.71499567855793</v>
       </c>
       <c r="M7" t="n">
-        <v>58.7436511242126</v>
+        <v>58.74365112421268</v>
       </c>
       <c r="N7" t="n">
-        <v>57.34685839899504</v>
+        <v>57.34685839899511</v>
       </c>
       <c r="O7" t="n">
-        <v>52.96910558947155</v>
+        <v>52.96910558947162</v>
       </c>
       <c r="P7" t="n">
-        <v>45.32422052754882</v>
+        <v>45.32422052754887</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.38014095604723</v>
+        <v>31.38014095604727</v>
       </c>
       <c r="R7" t="n">
-        <v>16.85008980225921</v>
+        <v>16.85008980225923</v>
       </c>
       <c r="S7" t="n">
-        <v>6.530857693273533</v>
+        <v>6.530857693273541</v>
       </c>
       <c r="T7" t="n">
-        <v>1.601201416712864</v>
+        <v>1.601201416712866</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02044086914952595</v>
+        <v>0.02044086914952598</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,7 +31847,7 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M12" t="n">
-        <v>672.9886851259154</v>
+        <v>639.9123362390561</v>
       </c>
       <c r="N12" t="n">
         <v>690.8006930808665</v>
@@ -31859,10 +31859,10 @@
         <v>507.1937229186794</v>
       </c>
       <c r="Q12" t="n">
-        <v>325.1993231669561</v>
+        <v>339.045571956113</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S12" t="n">
         <v>49.33541771695084</v>
@@ -32075,13 +32075,13 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>250.9407870226302</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>576.7059867951955</v>
+        <v>563.6284403293432</v>
       </c>
       <c r="M15" t="n">
         <v>672.9886851259154</v>
@@ -32093,10 +32093,10 @@
         <v>631.9476752990398</v>
       </c>
       <c r="P15" t="n">
-        <v>419.1555389386994</v>
+        <v>507.1937229186794</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.045571956113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,7 +32321,7 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M18" t="n">
-        <v>672.9886851259154</v>
+        <v>150.5609053844606</v>
       </c>
       <c r="N18" t="n">
         <v>690.8006930808665</v>
@@ -32330,13 +32330,13 @@
         <v>631.9476752990398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>507.1937229186794</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.0672078167097</v>
+        <v>339.045571956113</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S18" t="n">
         <v>49.33541771695084</v>
@@ -32549,7 +32549,7 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J21" t="n">
-        <v>237.8632405567779</v>
+        <v>250.9407870226302</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M21" t="n">
-        <v>672.9886851259154</v>
+        <v>441.6172406922694</v>
       </c>
       <c r="N21" t="n">
         <v>690.8006930808665</v>
@@ -32570,10 +32570,10 @@
         <v>507.1937229186794</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>339.045571956113</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S21" t="n">
         <v>49.33541771695084</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>423.022570498728</v>
+        <v>428.8977742821677</v>
       </c>
       <c r="L24" t="n">
         <v>576.7059867951955</v>
       </c>
       <c r="M24" t="n">
-        <v>672.9886851259154</v>
+        <v>667.1134813424756</v>
       </c>
       <c r="N24" t="n">
         <v>690.8006930808665</v>
@@ -33032,7 +33032,7 @@
         <v>576.7059867951955</v>
       </c>
       <c r="M27" t="n">
-        <v>672.9886851259154</v>
+        <v>150.5609053844606</v>
       </c>
       <c r="N27" t="n">
         <v>690.8006930808665</v>
@@ -33041,13 +33041,13 @@
         <v>631.9476752990398</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0598411450184</v>
+        <v>507.1937229186794</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>339.045571956113</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S27" t="n">
         <v>49.33541771695084</v>
@@ -33260,19 +33260,19 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>250.9407870226302</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821677</v>
       </c>
       <c r="L30" t="n">
         <v>576.7059867951955</v>
       </c>
       <c r="M30" t="n">
-        <v>672.9886851259154</v>
+        <v>150.5609053844606</v>
       </c>
       <c r="N30" t="n">
-        <v>602.7625091008866</v>
+        <v>690.8006930808665</v>
       </c>
       <c r="O30" t="n">
         <v>631.9476752990398</v>
@@ -33284,7 +33284,7 @@
         <v>339.045571956113</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S30" t="n">
         <v>49.33541771695084</v>
@@ -33497,10 +33497,10 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>217.864438135771</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821677</v>
       </c>
       <c r="L33" t="n">
         <v>576.7059867951955</v>
@@ -33509,10 +33509,10 @@
         <v>672.9886851259154</v>
       </c>
       <c r="N33" t="n">
-        <v>602.7625091008866</v>
+        <v>690.8006930808665</v>
       </c>
       <c r="O33" t="n">
-        <v>631.9476752990398</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>507.1937229186794</v>
@@ -33521,7 +33521,7 @@
         <v>339.045571956113</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S33" t="n">
         <v>49.33541771695084</v>
@@ -33746,19 +33746,19 @@
         <v>672.9886851259154</v>
       </c>
       <c r="N36" t="n">
-        <v>602.7625091008866</v>
+        <v>690.8006930808665</v>
       </c>
       <c r="O36" t="n">
         <v>631.9476752990398</v>
       </c>
       <c r="P36" t="n">
-        <v>507.1937229186794</v>
+        <v>399.9254388409969</v>
       </c>
       <c r="Q36" t="n">
         <v>339.045571956113</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S36" t="n">
         <v>49.33541771695084</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>428.8977742821677</v>
       </c>
       <c r="L39" t="n">
-        <v>488.6678028152155</v>
+        <v>178.3813674097042</v>
       </c>
       <c r="M39" t="n">
         <v>672.9886851259154</v>
@@ -33995,7 +33995,7 @@
         <v>339.045571956113</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S39" t="n">
         <v>49.33541771695084</v>
@@ -34208,7 +34208,7 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J42" t="n">
-        <v>237.0945382334734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>428.8977742821677</v>
@@ -34223,7 +34223,7 @@
         <v>690.8006930808665</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6230559135489</v>
       </c>
       <c r="P42" t="n">
         <v>507.1937229186794</v>
@@ -34232,7 +34232,7 @@
         <v>339.045571956113</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S42" t="n">
         <v>49.33541771695084</v>
@@ -34445,13 +34445,13 @@
         <v>91.44817687793729</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>250.9407870226302</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>488.6678028152155</v>
+        <v>345.3345423615495</v>
       </c>
       <c r="M45" t="n">
         <v>672.9886851259154</v>
@@ -34469,7 +34469,7 @@
         <v>339.045571956113</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>164.9096040616663</v>
       </c>
       <c r="S45" t="n">
         <v>49.33541771695084</v>
@@ -34784,13 +34784,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>151.8955562274027</v>
+        <v>144.9277431142228</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58.95756913567506</v>
+        <v>58.95756913567514</v>
       </c>
       <c r="K5" t="n">
-        <v>210.3265616962476</v>
+        <v>210.3265616962477</v>
       </c>
       <c r="L5" t="n">
-        <v>313.7333724160696</v>
+        <v>313.7333724160699</v>
       </c>
       <c r="M5" t="n">
-        <v>365.8631151185939</v>
+        <v>365.8631151185941</v>
       </c>
       <c r="N5" t="n">
-        <v>357.0033673185021</v>
+        <v>357.0033673185023</v>
       </c>
       <c r="O5" t="n">
-        <v>291.464077718411</v>
+        <v>291.4640777184112</v>
       </c>
       <c r="P5" t="n">
-        <v>210.7029148430702</v>
+        <v>210.7029148430703</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.22733657146725</v>
+        <v>80.22733657146736</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>41.48504782994691</v>
+        <v>41.48504782994696</v>
       </c>
       <c r="K6" t="n">
-        <v>198.8043959126911</v>
+        <v>198.8043959126912</v>
       </c>
       <c r="L6" t="n">
-        <v>329.3416870048494</v>
+        <v>329.3416870048495</v>
       </c>
       <c r="M6" t="n">
-        <v>436.8304789739798</v>
+        <v>99.77060157127653</v>
       </c>
       <c r="N6" t="n">
-        <v>127.1978746084003</v>
+        <v>464.2577520111041</v>
       </c>
       <c r="O6" t="n">
-        <v>357.6185992882824</v>
+        <v>357.6185992882826</v>
       </c>
       <c r="P6" t="n">
-        <v>269.8456383057259</v>
+        <v>269.845638305726</v>
       </c>
       <c r="Q6" t="n">
         <v>127.1545928941609</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.26955946260738</v>
+        <v>21.26955946260743</v>
       </c>
       <c r="L7" t="n">
-        <v>83.30502093887399</v>
+        <v>83.30502093887407</v>
       </c>
       <c r="M7" t="n">
-        <v>98.32752808605318</v>
+        <v>98.32752808605326</v>
       </c>
       <c r="N7" t="n">
-        <v>101.4790307782236</v>
+        <v>101.4790307782237</v>
       </c>
       <c r="O7" t="n">
-        <v>77.55423350351123</v>
+        <v>77.55423350351128</v>
       </c>
       <c r="P7" t="n">
-        <v>42.60277979244231</v>
+        <v>42.60277979244236</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>409.3799138297915</v>
+        <v>391.8632038806162</v>
       </c>
       <c r="K11" t="n">
         <v>735.5188187708344</v>
@@ -35428,7 +35428,7 @@
         <v>482.6233624169718</v>
       </c>
       <c r="Q11" t="n">
-        <v>508.5689865461403</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R11" t="n">
         <v>96.24610105574601</v>
@@ -35495,7 +35495,7 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M12" t="n">
-        <v>530.854651203897</v>
+        <v>497.7783023170378</v>
       </c>
       <c r="N12" t="n">
         <v>559.4589809975332</v>
@@ -35507,10 +35507,10 @@
         <v>373.2193155043491</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.2175490809346</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K14" t="n">
-        <v>718.6135333908925</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L14" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932272</v>
       </c>
       <c r="M14" t="n">
         <v>641.3216434560771</v>
@@ -35659,7 +35659,7 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O14" t="n">
-        <v>987.1117052779427</v>
+        <v>876.6906179187149</v>
       </c>
       <c r="P14" t="n">
         <v>482.6233624169718</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>124.1031603559635</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>438.1516070153213</v>
+        <v>425.074060549469</v>
       </c>
       <c r="M15" t="n">
         <v>530.854651203897</v>
@@ -35741,10 +35741,10 @@
         <v>489.3514308545954</v>
       </c>
       <c r="P15" t="n">
-        <v>285.1811315243691</v>
+        <v>373.2193155043491</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.0637978700914</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>240.2832986577178</v>
+        <v>409.3799138297915</v>
       </c>
       <c r="K17" t="n">
         <v>411.3734061996697</v>
       </c>
       <c r="L17" t="n">
-        <v>547.6195934427767</v>
+        <v>629.2163623126868</v>
       </c>
       <c r="M17" t="n">
-        <v>1090.83517694891</v>
+        <v>641.3216434560771</v>
       </c>
       <c r="N17" t="n">
-        <v>656.3593106322037</v>
+        <v>1093.706235044188</v>
       </c>
       <c r="O17" t="n">
         <v>606.3115240151974</v>
       </c>
       <c r="P17" t="n">
-        <v>721.1501373781074</v>
+        <v>482.6233624169718</v>
       </c>
       <c r="Q17" t="n">
         <v>313.7707058354113</v>
@@ -35969,7 +35969,7 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M18" t="n">
-        <v>530.854651203897</v>
+        <v>8.426871462442287</v>
       </c>
       <c r="N18" t="n">
         <v>559.4589809975332</v>
@@ -35978,13 +35978,13 @@
         <v>489.3514308545954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>373.2193155043491</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.08543373068815</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>409.3799138297915</v>
+        <v>240.2832986577178</v>
       </c>
       <c r="K20" t="n">
-        <v>735.5188187708344</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L20" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M20" t="n">
-        <v>641.3216434560771</v>
+        <v>1007.563243738562</v>
       </c>
       <c r="N20" t="n">
         <v>656.3593106322037</v>
@@ -36136,7 +36136,7 @@
         <v>606.3115240151974</v>
       </c>
       <c r="P20" t="n">
-        <v>677.4216431277013</v>
+        <v>804.4220705884545</v>
       </c>
       <c r="Q20" t="n">
         <v>313.7707058354113</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>111.0256138901112</v>
+        <v>124.1031603559635</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M21" t="n">
-        <v>530.854651203897</v>
+        <v>299.4832067702511</v>
       </c>
       <c r="N21" t="n">
         <v>559.4589809975332</v>
@@ -36218,10 +36218,10 @@
         <v>373.2193155043491</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>409.3799138297915</v>
+        <v>240.2832986577178</v>
       </c>
       <c r="K23" t="n">
         <v>411.3734061996697</v>
@@ -36364,19 +36364,19 @@
         <v>547.6195934427767</v>
       </c>
       <c r="M23" t="n">
-        <v>641.3216434560771</v>
+        <v>948.5617706472997</v>
       </c>
       <c r="N23" t="n">
         <v>656.3593106322037</v>
       </c>
       <c r="O23" t="n">
-        <v>606.3115240151974</v>
+        <v>987.1117052779427</v>
       </c>
       <c r="P23" t="n">
-        <v>804.4220705884545</v>
+        <v>482.6233624169718</v>
       </c>
       <c r="Q23" t="n">
-        <v>510.915690945822</v>
+        <v>313.7707058354113</v>
       </c>
       <c r="R23" t="n">
         <v>96.24610105574601</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>285.181131524369</v>
+        <v>291.0563353078088</v>
       </c>
       <c r="L24" t="n">
         <v>438.1516070153213</v>
       </c>
       <c r="M24" t="n">
-        <v>530.854651203897</v>
+        <v>524.9794474204572</v>
       </c>
       <c r="N24" t="n">
         <v>559.4589809975332</v>
@@ -36595,13 +36595,13 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K26" t="n">
-        <v>411.3734061996697</v>
+        <v>469.4375094432824</v>
       </c>
       <c r="L26" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932272</v>
       </c>
       <c r="M26" t="n">
-        <v>1007.563243738562</v>
+        <v>641.3216434560771</v>
       </c>
       <c r="N26" t="n">
         <v>656.3593106322037</v>
@@ -36610,10 +36610,10 @@
         <v>606.3115240151974</v>
       </c>
       <c r="P26" t="n">
-        <v>804.4220705884545</v>
+        <v>482.6233624169718</v>
       </c>
       <c r="Q26" t="n">
-        <v>313.7707058354113</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R26" t="n">
         <v>96.24610105574601</v>
@@ -36680,7 +36680,7 @@
         <v>438.1516070153213</v>
       </c>
       <c r="M27" t="n">
-        <v>530.854651203897</v>
+        <v>8.426871462442287</v>
       </c>
       <c r="N27" t="n">
         <v>559.4589809975332</v>
@@ -36689,13 +36689,13 @@
         <v>489.3514308545954</v>
       </c>
       <c r="P27" t="n">
-        <v>69.08543373068815</v>
+        <v>373.2193155043491</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>199.0637978700914</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>409.3799138297915</v>
+        <v>240.2832986577178</v>
       </c>
       <c r="K29" t="n">
-        <v>735.5188187708344</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L29" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M29" t="n">
-        <v>641.3216434560771</v>
+        <v>1090.83517694891</v>
       </c>
       <c r="N29" t="n">
         <v>656.3593106322037</v>
@@ -36847,13 +36847,13 @@
         <v>606.3115240151974</v>
       </c>
       <c r="P29" t="n">
-        <v>677.4216431276993</v>
+        <v>482.6233624169718</v>
       </c>
       <c r="Q29" t="n">
-        <v>313.7707058354113</v>
+        <v>486.5810609235645</v>
       </c>
       <c r="R29" t="n">
-        <v>96.24610105574601</v>
+        <v>161.9625209287285</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>124.1031603559635</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>291.0563353078088</v>
       </c>
       <c r="L30" t="n">
         <v>438.1516070153213</v>
       </c>
       <c r="M30" t="n">
-        <v>530.854651203897</v>
+        <v>8.426871462442287</v>
       </c>
       <c r="N30" t="n">
-        <v>471.4207970175533</v>
+        <v>559.4589809975332</v>
       </c>
       <c r="O30" t="n">
         <v>489.3514308545954</v>
@@ -36932,7 +36932,7 @@
         <v>199.0637978700914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K32" t="n">
-        <v>735.5188187708344</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L32" t="n">
-        <v>547.6195934427767</v>
+        <v>576.8283101011125</v>
       </c>
       <c r="M32" t="n">
         <v>641.3216434560771</v>
@@ -37081,16 +37081,16 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O32" t="n">
-        <v>970.2064198980004</v>
+        <v>987.1117052779427</v>
       </c>
       <c r="P32" t="n">
         <v>482.6233624169718</v>
       </c>
       <c r="Q32" t="n">
-        <v>313.7707058354113</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R32" t="n">
-        <v>96.24610105574601</v>
+        <v>161.9625209287285</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.0268114691043</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>291.0563353078088</v>
       </c>
       <c r="L33" t="n">
         <v>438.1516070153213</v>
@@ -37157,10 +37157,10 @@
         <v>530.854651203897</v>
       </c>
       <c r="N33" t="n">
-        <v>471.4207970175533</v>
+        <v>559.4589809975332</v>
       </c>
       <c r="O33" t="n">
-        <v>489.3514308545954</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>373.2193155043491</v>
@@ -37169,7 +37169,7 @@
         <v>199.0637978700914</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>411.3734061996697</v>
       </c>
       <c r="L35" t="n">
-        <v>547.6195934427767</v>
+        <v>913.8611937252621</v>
       </c>
       <c r="M35" t="n">
         <v>641.3216434560771</v>
@@ -37318,10 +37318,10 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O35" t="n">
-        <v>987.1117052779427</v>
+        <v>606.3115240151974</v>
       </c>
       <c r="P35" t="n">
-        <v>789.8634896081943</v>
+        <v>804.4220705884545</v>
       </c>
       <c r="Q35" t="n">
         <v>313.7707058354113</v>
@@ -37394,19 +37394,19 @@
         <v>530.854651203897</v>
       </c>
       <c r="N36" t="n">
-        <v>471.4207970175533</v>
+        <v>559.4589809975332</v>
       </c>
       <c r="O36" t="n">
         <v>489.3514308545954</v>
       </c>
       <c r="P36" t="n">
-        <v>373.2193155043491</v>
+        <v>265.9510314266667</v>
       </c>
       <c r="Q36" t="n">
         <v>199.0637978700914</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K38" t="n">
-        <v>735.5188187708344</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L38" t="n">
-        <v>547.6195934427767</v>
+        <v>635.8297831923752</v>
       </c>
       <c r="M38" t="n">
         <v>641.3216434560771</v>
@@ -37555,16 +37555,16 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O38" t="n">
-        <v>970.2064198980004</v>
+        <v>606.3115240151974</v>
       </c>
       <c r="P38" t="n">
-        <v>482.6233624169718</v>
+        <v>804.4220705884545</v>
       </c>
       <c r="Q38" t="n">
-        <v>313.7707058354113</v>
+        <v>526.0856964953159</v>
       </c>
       <c r="R38" t="n">
-        <v>96.24610105574601</v>
+        <v>161.9625209287285</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>291.0563353078088</v>
       </c>
       <c r="L39" t="n">
-        <v>350.1134230353413</v>
+        <v>39.82698762983007</v>
       </c>
       <c r="M39" t="n">
         <v>530.854651203897</v>
@@ -37643,7 +37643,7 @@
         <v>199.0637978700914</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3000158222503</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6195934427767</v>
+        <v>965.2808079932272</v>
       </c>
       <c r="M41" t="n">
         <v>641.3216434560771</v>
@@ -37792,16 +37792,16 @@
         <v>656.3593106322037</v>
       </c>
       <c r="O41" t="n">
-        <v>606.3115240151974</v>
+        <v>810.9741980457329</v>
       </c>
       <c r="P41" t="n">
-        <v>804.4220705884545</v>
+        <v>482.6233624169718</v>
       </c>
       <c r="Q41" t="n">
-        <v>526.0856964953159</v>
+        <v>313.7707058354113</v>
       </c>
       <c r="R41" t="n">
-        <v>96.24610105574601</v>
+        <v>161.9625209287285</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>110.2569115668067</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>291.0563353078088</v>
@@ -37871,7 +37871,7 @@
         <v>559.4589809975332</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>91.0268114691044</v>
       </c>
       <c r="P42" t="n">
         <v>373.2193155043491</v>
@@ -37880,7 +37880,7 @@
         <v>199.0637978700914</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>240.2832986577178</v>
       </c>
       <c r="K44" t="n">
-        <v>735.5188187708344</v>
+        <v>411.3734061996697</v>
       </c>
       <c r="L44" t="n">
         <v>547.6195934427767</v>
       </c>
       <c r="M44" t="n">
-        <v>641.3216434560771</v>
+        <v>941.8468238655803</v>
       </c>
       <c r="N44" t="n">
         <v>656.3593106322037</v>
@@ -38032,13 +38032,13 @@
         <v>606.3115240151974</v>
       </c>
       <c r="P44" t="n">
-        <v>634.2032676398701</v>
+        <v>804.4220705884545</v>
       </c>
       <c r="Q44" t="n">
-        <v>526.0856964953159</v>
+        <v>313.7707058354113</v>
       </c>
       <c r="R44" t="n">
-        <v>96.24610105574601</v>
+        <v>161.9625209287285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>124.1031603559635</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>350.1134230353413</v>
+        <v>206.7801625816753</v>
       </c>
       <c r="M45" t="n">
         <v>530.854651203897</v>
@@ -38117,7 +38117,7 @@
         <v>199.0637978700914</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.23010009770235</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
